--- a/pool.xlsx
+++ b/pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Documents\multilex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE34A7E9-C6FA-4A6D-98F5-74A4D0570CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE12697D-C79F-4175-AE3E-434F0C768C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-228" yWindow="12852" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13999,6 +13999,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -14097,9 +14100,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -14138,7 +14138,7 @@
     <tableColumn id="22" xr3:uid="{21AD1514-328B-416E-BFC3-37D0298FCA75}" name="class" dataCellStyle="Normal"/>
     <tableColumn id="1" xr3:uid="{4F9A4535-328C-3E46-9518-3627B48354E7}" name="label" dataCellStyle="Normal"/>
     <tableColumn id="20" xr3:uid="{19D5A4BB-44BC-124C-BB7C-2413500420C1}" name="ipa" dataCellStyle="Normal"/>
-    <tableColumn id="15" xr3:uid="{46FFB545-604E-8548-89CE-16498F243E16}" name="frequency" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="15" xr3:uid="{46FFB545-604E-8548-89CE-16498F243E16}" name="frequency" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="17" xr3:uid="{BF65C724-CB0A-AE41-836D-955044AD5AE2}" name="cognate" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{9D6EC4F4-1DFF-EC4B-952F-12FC7455C5C7}" name="include" dataCellStyle="Normal"/>
     <tableColumn id="9" xr3:uid="{0DA8E3A2-FEF7-C24E-A2C1-BDA1D2A5537A}" name="version" dataCellStyle="Normal"/>
@@ -14349,8 +14349,8 @@
   <dimension ref="A1:L1600"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A920" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G939" sqref="G939"/>
+      <pane ySplit="1" topLeftCell="A1339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1343" sqref="N1343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -70420,49 +70420,49 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:K167 K171:K1048576">
-    <cfRule type="cellIs" dxfId="12" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
       <formula>"A,B,C,D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="28" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="12" priority="28" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",K1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="30" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="10" priority="30" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",K1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="31" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048574">
-    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048574">
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K168:K170">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"A,B,C,D"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",K168)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",K168)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
